--- a/agregat/ядро.xlsx
+++ b/agregat/ядро.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>где купить двигатель камаз</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>челны камаз двигатели</t>
+  </si>
+  <si>
+    <t>Ключевое слово</t>
+  </si>
+  <si>
+    <t>Кол-во запрсов в месяц</t>
   </si>
 </sst>
 </file>
@@ -295,15 +301,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -311,12 +323,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -597,710 +626,719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="1">
         <v>88044</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="1">
         <v>12353</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="1">
         <v>9912</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="1">
         <v>5962</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="1">
         <v>4157</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="1">
         <v>2447</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="1">
         <v>1648</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="1">
         <v>1579</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="1">
         <v>1187</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="1">
         <v>1170</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="1">
         <v>1170</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="1">
         <v>1015</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="1">
         <v>921</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="1">
         <v>870</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="1">
         <v>803</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="1">
         <v>620</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="1">
         <v>584</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="1">
         <v>571</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="1">
         <v>541</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="1">
         <v>537</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="1">
         <v>507</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="1">
         <v>489</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="1">
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26">
+      <c r="B27" s="1">
         <v>436</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27">
+      <c r="B28" s="1">
         <v>434</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28">
+      <c r="B29" s="1">
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B29">
+      <c r="B30" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30">
+      <c r="B31" s="1">
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B31">
+      <c r="B32" s="1">
         <v>353</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32">
+      <c r="B33" s="1">
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B33">
+      <c r="B34" s="1">
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B34">
+      <c r="B35" s="1">
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B35">
+      <c r="B36" s="1">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B36">
+      <c r="B37" s="1">
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B38" s="1">
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B38">
+      <c r="B39" s="1">
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B40" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B40">
+      <c r="B41" s="1">
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B41">
+      <c r="B42" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B42">
+      <c r="B43" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B43">
+      <c r="B44" s="1">
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B44">
+      <c r="B45" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B45">
+      <c r="B46" s="1">
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B46">
+      <c r="B47" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B47">
+      <c r="B48" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B48">
+      <c r="B49" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B49">
+      <c r="B50" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B50">
+      <c r="B51" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B51">
+      <c r="B52" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B52">
+      <c r="B53" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B53">
+      <c r="B54" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B54">
+      <c r="B55" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B55">
+      <c r="B56" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B56">
+      <c r="B57" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B57">
+      <c r="B58" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B58">
+      <c r="B59" s="1">
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B59">
+      <c r="B60" s="1">
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B61" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B61">
+      <c r="B62" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B62">
+      <c r="B63" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B63">
+      <c r="B64" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B64">
+      <c r="B65" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B65">
+      <c r="B66" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B67" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B67">
+      <c r="B68" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B68">
+      <c r="B69" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B69">
+      <c r="B70" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B70">
+      <c r="B71" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B71">
+      <c r="B72" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B72">
+      <c r="B73" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B73">
+      <c r="B74" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B74">
+      <c r="B75" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B75">
+      <c r="B76" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B76">
+      <c r="B77" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B78" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B78">
+      <c r="B79" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B79">
+      <c r="B80" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B80">
+      <c r="B81" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B81">
+      <c r="B82" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B82">
+      <c r="B83" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B83">
+      <c r="B84" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B84">
+      <c r="B85" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B85">
+      <c r="B86" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B86">
+      <c r="B87" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B87">
+      <c r="B88" s="1">
         <v>29</v>
       </c>
     </row>
